--- a/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7370812D-E5F5-4B69-9CF8-DF0BFCA832C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50468FB5-A958-4B94-9221-DB259B89B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{850D8562-9743-4051-8DCE-0ECAC44197AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C149400B-E5D2-45AF-A4F0-2F114FABCEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="220">
   <si>
     <t>Población cuya depresión o ansiedad le limita en 2012 (Tasa respuesta: 7,7%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>38,25%</t>
+    <t>44,56%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,16 +105,16 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>55,44%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -126,55 +126,55 @@
     <t>53,78%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -183,319 +183,319 @@
     <t>61,51%</t>
   </si>
   <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>60,03%</t>
+    <t>53,2%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>39,97%</t>
+    <t>46,8%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -504,19 +504,19 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -528,169 +528,175 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>69,09%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>30,03%</t>
+    <t>30,91%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>87,03%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>12,97%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A3142D-EAEA-4439-A55F-7AC9CCA332F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D7598-9ED9-49CA-AFFD-19308E18140C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1849,10 +1855,10 @@
         <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -1861,13 +1867,13 @@
         <v>81425</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1876,13 +1882,13 @@
         <v>107369</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1903,13 @@
         <v>17035</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1912,13 +1918,13 @@
         <v>35864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -1927,13 +1933,13 @@
         <v>52900</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2007,13 @@
         <v>85158</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>268</v>
@@ -2016,13 +2022,13 @@
         <v>284994</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>345</v>
@@ -2031,13 +2037,13 @@
         <v>370152</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2058,13 @@
         <v>55373</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -2067,10 +2073,10 @@
         <v>112474</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>115</v>
@@ -2165,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040966C9-EAAF-41E2-906F-8C54D2AD6AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859574FE-59A3-4B4C-98DE-621B44883CFA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2626,7 +2632,7 @@
         <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>80469</v>
+        <v>80468</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>157</v>
@@ -2728,7 +2734,7 @@
         <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>91596</v>
+        <v>91595</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -2942,10 +2948,10 @@
         <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2966,13 @@
         <v>3917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2975,13 +2981,13 @@
         <v>18288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2990,13 +2996,13 @@
         <v>22205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3070,13 @@
         <v>66891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -3079,13 +3085,13 @@
         <v>237916</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -3094,13 +3100,13 @@
         <v>304808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3121,13 @@
         <v>7939</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -3130,13 +3136,13 @@
         <v>42552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -3145,13 +3151,13 @@
         <v>50490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50468FB5-A958-4B94-9221-DB259B89B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35B5FFD-99A2-40A4-B383-0AF17769B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C149400B-E5D2-45AF-A4F0-2F114FABCEF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B4DDF54-B0ED-467E-82EF-EA1CC4EB64F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,16 +84,16 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>44,56%</t>
+    <t>44,87%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,190 +105,190 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>55,44%</t>
+    <t>55,13%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>53,78%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>61,51%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>38,49%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,109 +297,109 @@
     <t>60,36%</t>
   </si>
   <si>
-    <t>75,96%</t>
+    <t>75,6%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>39,64%</t>
   </si>
   <si>
-    <t>24,04%</t>
+    <t>24,4%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
+    <t>Población cuya depresión o ansiedad le limita en 2016 (Tasa respuesta: 4,98%)</t>
   </si>
   <si>
     <t>75,08%</t>
@@ -411,19 +411,19 @@
     <t>75,02%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>24,92%</t>
@@ -435,40 +435,40 @@
     <t>24,98%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>53,2%</t>
+    <t>60,89%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>78,5%</t>
+    <t>77,97%</t>
   </si>
   <si>
     <t>95,21%</t>
@@ -477,16 +477,16 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>46,8%</t>
+    <t>39,11%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>11,41%</t>
@@ -495,7 +495,7 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>21,5%</t>
+    <t>22,03%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -504,19 +504,19 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>0%</t>
@@ -528,175 +528,175 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>69,09%</t>
+    <t>69,98%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D7598-9ED9-49CA-AFFD-19308E18140C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24C705A-9919-4B48-B5F5-BAF9E957265D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1855,7 +1855,7 @@
         <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>86</v>
@@ -1909,7 +1909,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859574FE-59A3-4B4C-98DE-621B44883CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CA2D74-3AFB-4CCE-869A-4D8FB5D57A6C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
